--- a/summary.xlsx
+++ b/summary.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="edge - open" sheetId="1" r:id="rId1"/>
+    <sheet name="datacenter - open" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>Model</t>
   </si>
@@ -94,10 +94,16 @@
     <t>4.1-0002</t>
   </si>
   <si>
-    <t>edge/open/MLCommons/48ed6105bd85-nvidia-gpu-TensorRT-scc24-base/stable-diffusion-xl</t>
-  </si>
-  <si>
-    <t>edge/open/MLCommons/48ed6105bd85-nvidia-gpu-TensorRT-scc24-main/stable-diffusion-xl</t>
+    <t>4.1-0003</t>
+  </si>
+  <si>
+    <t>datacenter/open/MLCommons/48ed6105bd85-nvidia-gpu-TensorRT-scc24-base/stable-diffusion-xl</t>
+  </si>
+  <si>
+    <t>datacenter/open/MLCommons/48ed6105bd85-nvidia-gpu-TensorRT-scc24-main/stable-diffusion-xl</t>
+  </si>
+  <si>
+    <t>datacenter/open/MLCommons/48ed6105bd85-reference-gpu-pytorch_v2.1.0a0-scc24-base/stable-diffusion-xl</t>
   </si>
   <si>
     <t>availableMLCommons</t>
@@ -125,6 +131,9 @@
   </si>
   <si>
     <t>CLIP_SCORE: 15.586050063371658  FID_SCORE: 236.8087101317688</t>
+  </si>
+  <si>
+    <t>CLIP_SCORE: 15.236237794160843  FID_SCORE: 238.78369342212613</t>
   </si>
 </sst>
 </file>
@@ -494,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CW7"/>
+  <dimension ref="A1:CW8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -592,46 +601,46 @@
         <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P6" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/48ed6105bd85-nvidia-gpu-TensorRT-scc24-base","details")</f>
@@ -650,46 +659,46 @@
         <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/48ed6105bd85-nvidia-gpu-TensorRT-scc24-main","details")</f>
@@ -701,6 +710,64 @@
       </c>
       <c r="R7" s="1">
         <v>1.13292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/48ed6105bd85-reference-gpu-pytorch_v2.1.0a0-scc24-base","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0.373636</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="datacenter - open" sheetId="1" r:id="rId1"/>
+    <sheet name="edge - open" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="47">
   <si>
     <t>Model</t>
   </si>
@@ -134,6 +135,27 @@
   </si>
   <si>
     <t>CLIP_SCORE: 15.236237794160843  FID_SCORE: 238.78369342212613</t>
+  </si>
+  <si>
+    <t>gptj-99</t>
+  </si>
+  <si>
+    <t>Tokens/s</t>
+  </si>
+  <si>
+    <t>4.1-0004</t>
+  </si>
+  <si>
+    <t>edge/open/MLCommons/gh_action-reference-gpu-pytorch_v2.4.1-default_config/gptj-99</t>
+  </si>
+  <si>
+    <t>gh_action</t>
+  </si>
+  <si>
+    <t>pytorch v2.4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automated by MLCommons CM v2.3.4. </t>
   </si>
 </sst>
 </file>
@@ -778,4 +800,165 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CW6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="16" max="101" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="Q2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="Q3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="Q4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/gh_action-reference-gpu-pytorch_v2.4.1-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>52.9478</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A6:CW201">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>mod(countunique($c$6:$c6), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/summary.xlsx
+++ b/summary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="50">
   <si>
     <t>Model</t>
   </si>
@@ -146,9 +146,15 @@
     <t>4.1-0004</t>
   </si>
   <si>
+    <t>4.1-0005</t>
+  </si>
+  <si>
     <t>edge/open/MLCommons/gh_action-reference-gpu-pytorch_v2.4.1-default_config/gptj-99</t>
   </si>
   <si>
+    <t>edge/open/MLCommons/gh_action-reference-gpu-pytorch_v2.4.1-default_config/stable-diffusion-xl</t>
+  </si>
+  <si>
     <t>gh_action</t>
   </si>
   <si>
@@ -156,6 +162,9 @@
   </si>
   <si>
     <t xml:space="preserve">Automated by MLCommons CM v2.3.4. </t>
+  </si>
+  <si>
+    <t>CLIP_SCORE: 15.18544016778469  FID_SCORE: 235.69504308101006</t>
   </si>
 </sst>
 </file>
@@ -804,7 +813,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CW6"/>
+  <dimension ref="A1:CW7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -814,37 +823,47 @@
     <col min="16" max="101" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="Q1" s="2"/>
       <c r="R1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19">
       <c r="Q2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="Q3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="Q4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -897,12 +916,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>30</v>
@@ -914,7 +933,7 @@
         <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -932,10 +951,10 @@
         <v>1</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>40</v>
@@ -953,7 +972,68 @@
         <v>52.9478</v>
       </c>
     </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/gh_action-reference-gpu-pytorch_v2.4.1-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0.345721</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="R1:S1"/>
+  </mergeCells>
   <conditionalFormatting sqref="A6:CW201">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>mod(countunique($c$6:$c6), 2) = 0</formula>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="54">
   <si>
     <t>Model</t>
   </si>
@@ -98,6 +98,9 @@
     <t>4.1-0003</t>
   </si>
   <si>
+    <t>4.1-0004</t>
+  </si>
+  <si>
     <t>datacenter/open/MLCommons/48ed6105bd85-nvidia-gpu-TensorRT-scc24-base/stable-diffusion-xl</t>
   </si>
   <si>
@@ -107,6 +110,9 @@
     <t>datacenter/open/MLCommons/48ed6105bd85-reference-gpu-pytorch_v2.1.0a0-scc24-base/stable-diffusion-xl</t>
   </si>
   <si>
+    <t>datacenter/open/MLCommons/f9ac88850adc-reference-gpu-pytorch_v2.4.1-scc24-base/stable-diffusion-xl</t>
+  </si>
+  <si>
     <t>availableMLCommons</t>
   </si>
   <si>
@@ -119,6 +125,9 @@
     <t>48ed6105bd85</t>
   </si>
   <si>
+    <t>f9ac88850adc</t>
+  </si>
+  <si>
     <t>Intel(R) Xeon(R) w7-2495X</t>
   </si>
   <si>
@@ -128,27 +137,36 @@
     <t>TensorRT</t>
   </si>
   <si>
+    <t>pytorch v2.4.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Automated by MLCommons CM v2.3.6. </t>
   </si>
   <si>
+    <t xml:space="preserve">Automated by MLCommons CM v2.3.9. </t>
+  </si>
+  <si>
     <t>CLIP_SCORE: 15.586050063371658  FID_SCORE: 236.8087101317688</t>
   </si>
   <si>
     <t>CLIP_SCORE: 15.236237794160843  FID_SCORE: 238.78369342212613</t>
   </si>
   <si>
+    <t>CLIP_SCORE: 15.18544016778469  FID_SCORE: 235.69504308101006</t>
+  </si>
+  <si>
     <t>gptj-99</t>
   </si>
   <si>
     <t>Tokens/s</t>
   </si>
   <si>
-    <t>4.1-0004</t>
-  </si>
-  <si>
     <t>4.1-0005</t>
   </si>
   <si>
+    <t>4.1-0006</t>
+  </si>
+  <si>
     <t>edge/open/MLCommons/gh_action-reference-gpu-pytorch_v2.4.1-default_config/gptj-99</t>
   </si>
   <si>
@@ -158,13 +176,7 @@
     <t>gh_action</t>
   </si>
   <si>
-    <t>pytorch v2.4.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Automated by MLCommons CM v2.3.4. </t>
-  </si>
-  <si>
-    <t>CLIP_SCORE: 15.18544016778469  FID_SCORE: 235.69504308101006</t>
   </si>
 </sst>
 </file>
@@ -534,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CW8"/>
+  <dimension ref="A1:CW9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -632,46 +644,46 @@
         <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P6" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/48ed6105bd85-nvidia-gpu-TensorRT-scc24-base","details")</f>
@@ -690,46 +702,46 @@
         <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P7" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/48ed6105bd85-nvidia-gpu-TensorRT-scc24-main","details")</f>
@@ -748,46 +760,46 @@
         <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P8" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/48ed6105bd85-reference-gpu-pytorch_v2.1.0a0-scc24-base","details")</f>
@@ -799,6 +811,64 @@
       </c>
       <c r="R8" s="1">
         <v>0.373636</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/f9ac88850adc-reference-gpu-pytorch_v2.4.1-scc24-base","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0.376944</v>
       </c>
     </row>
   </sheetData>
@@ -835,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>4</v>
@@ -857,7 +927,7 @@
         <v>2</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>6</v>
@@ -918,46 +988,46 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2">
@@ -974,49 +1044,49 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="P7" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/gh_action-reference-gpu-pytorch_v2.4.1-default_config","details")</f>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="57">
   <si>
     <t>Model</t>
   </si>
@@ -101,6 +101,12 @@
     <t>4.1-0004</t>
   </si>
   <si>
+    <t>4.1-0005</t>
+  </si>
+  <si>
+    <t>datacenter/open/MLCommons/3b07702db56d-reference-gpu-pytorch_v2.4.1-scc24-base/stable-diffusion-xl</t>
+  </si>
+  <si>
     <t>datacenter/open/MLCommons/48ed6105bd85-nvidia-gpu-TensorRT-scc24-base/stable-diffusion-xl</t>
   </si>
   <si>
@@ -122,6 +128,9 @@
     <t>available</t>
   </si>
   <si>
+    <t>3b07702db56d</t>
+  </si>
+  <si>
     <t>48ed6105bd85</t>
   </si>
   <si>
@@ -134,16 +143,19 @@
     <t>NVIDIA GeForce RTX 4090</t>
   </si>
   <si>
+    <t>pytorch v2.4.1</t>
+  </si>
+  <si>
     <t>TensorRT</t>
   </si>
   <si>
-    <t>pytorch v2.4.1</t>
+    <t xml:space="preserve">Automated by MLCommons CM v2.3.9. </t>
   </si>
   <si>
     <t xml:space="preserve">Automated by MLCommons CM v2.3.6. </t>
   </si>
   <si>
-    <t xml:space="preserve">Automated by MLCommons CM v2.3.9. </t>
+    <t>CLIP_SCORE: 15.18544016778469  FID_SCORE: 235.69504308101006</t>
   </si>
   <si>
     <t>CLIP_SCORE: 15.586050063371658  FID_SCORE: 236.8087101317688</t>
@@ -152,19 +164,16 @@
     <t>CLIP_SCORE: 15.236237794160843  FID_SCORE: 238.78369342212613</t>
   </si>
   <si>
-    <t>CLIP_SCORE: 15.18544016778469  FID_SCORE: 235.69504308101006</t>
-  </si>
-  <si>
     <t>gptj-99</t>
   </si>
   <si>
     <t>Tokens/s</t>
   </si>
   <si>
-    <t>4.1-0005</t>
-  </si>
-  <si>
     <t>4.1-0006</t>
+  </si>
+  <si>
+    <t>4.1-0007</t>
   </si>
   <si>
     <t>edge/open/MLCommons/gh_action-reference-gpu-pytorch_v2.4.1-default_config/gptj-99</t>
@@ -546,7 +555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CW9"/>
+  <dimension ref="A1:CW10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -644,49 +653,49 @@
         <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P6" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/48ed6105bd85-nvidia-gpu-TensorRT-scc24-base","details")</f>
+        <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/3b07702db56d-reference-gpu-pytorch_v2.4.1-scc24-base","details")</f>
         <v>0</v>
       </c>
       <c r="Q6" s="2">
@@ -694,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>1.13598</v>
+        <v>0.375638</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -702,49 +711,49 @@
         <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P7" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/48ed6105bd85-nvidia-gpu-TensorRT-scc24-main","details")</f>
+        <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/48ed6105bd85-nvidia-gpu-TensorRT-scc24-base","details")</f>
         <v>0</v>
       </c>
       <c r="Q7" s="2">
@@ -752,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="R7" s="1">
-        <v>1.13292</v>
+        <v>1.13598</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -760,49 +769,49 @@
         <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P8" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/48ed6105bd85-reference-gpu-pytorch_v2.1.0a0-scc24-base","details")</f>
+        <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/48ed6105bd85-nvidia-gpu-TensorRT-scc24-main","details")</f>
         <v>0</v>
       </c>
       <c r="Q8" s="2">
@@ -810,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="1">
-        <v>0.373636</v>
+        <v>1.13292</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -818,49 +827,49 @@
         <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P9" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/f9ac88850adc-reference-gpu-pytorch_v2.4.1-scc24-base","details")</f>
+        <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/48ed6105bd85-reference-gpu-pytorch_v2.1.0a0-scc24-base","details")</f>
         <v>0</v>
       </c>
       <c r="Q9" s="2">
@@ -868,6 +877,64 @@
         <v>0</v>
       </c>
       <c r="R9" s="1">
+        <v>0.373636</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/f9ac88850adc-reference-gpu-pytorch_v2.4.1-scc24-base","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
         <v>0.376944</v>
       </c>
     </row>
@@ -905,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>4</v>
@@ -927,7 +994,7 @@
         <v>2</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>6</v>
@@ -988,46 +1055,46 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2">
@@ -1044,49 +1111,49 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P7" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/gh_action-reference-gpu-pytorch_v2.4.1-default_config","details")</f>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="61">
   <si>
     <t>Model</t>
   </si>
@@ -104,6 +104,9 @@
     <t>4.1-0005</t>
   </si>
   <si>
+    <t>4.1-0006</t>
+  </si>
+  <si>
     <t>datacenter/open/MLCommons/3b07702db56d-reference-gpu-pytorch_v2.4.1-scc24-base/stable-diffusion-xl</t>
   </si>
   <si>
@@ -116,6 +119,9 @@
     <t>datacenter/open/MLCommons/48ed6105bd85-reference-gpu-pytorch_v2.1.0a0-scc24-base/stable-diffusion-xl</t>
   </si>
   <si>
+    <t>datacenter/open/MLCommons/e8dbfdd7ca14-nvidia-gpu-TensorRT-scc24-base/stable-diffusion-xl</t>
+  </si>
+  <si>
     <t>datacenter/open/MLCommons/f9ac88850adc-reference-gpu-pytorch_v2.4.1-scc24-base/stable-diffusion-xl</t>
   </si>
   <si>
@@ -134,6 +140,9 @@
     <t>48ed6105bd85</t>
   </si>
   <si>
+    <t>e8dbfdd7ca14</t>
+  </si>
+  <si>
     <t>f9ac88850adc</t>
   </si>
   <si>
@@ -164,16 +173,19 @@
     <t>CLIP_SCORE: 15.236237794160843  FID_SCORE: 238.78369342212613</t>
   </si>
   <si>
+    <t>CLIP_SCORE: 15.617164582014084  FID_SCORE: 233.2857378703032</t>
+  </si>
+  <si>
     <t>gptj-99</t>
   </si>
   <si>
     <t>Tokens/s</t>
   </si>
   <si>
-    <t>4.1-0006</t>
-  </si>
-  <si>
     <t>4.1-0007</t>
+  </si>
+  <si>
+    <t>4.1-0008</t>
   </si>
   <si>
     <t>edge/open/MLCommons/gh_action-reference-gpu-pytorch_v2.4.1-default_config/gptj-99</t>
@@ -555,7 +567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CW10"/>
+  <dimension ref="A1:CW11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -653,46 +665,46 @@
         <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P6" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/3b07702db56d-reference-gpu-pytorch_v2.4.1-scc24-base","details")</f>
@@ -711,46 +723,46 @@
         <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P7" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/48ed6105bd85-nvidia-gpu-TensorRT-scc24-base","details")</f>
@@ -769,46 +781,46 @@
         <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P8" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/48ed6105bd85-nvidia-gpu-TensorRT-scc24-main","details")</f>
@@ -827,46 +839,46 @@
         <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="P9" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/48ed6105bd85-reference-gpu-pytorch_v2.1.0a0-scc24-base","details")</f>
@@ -885,49 +897,49 @@
         <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="P10" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/f9ac88850adc-reference-gpu-pytorch_v2.4.1-scc24-base","details")</f>
+        <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/e8dbfdd7ca14-nvidia-gpu-TensorRT-scc24-base","details")</f>
         <v>0</v>
       </c>
       <c r="Q10" s="2">
@@ -935,6 +947,64 @@
         <v>0</v>
       </c>
       <c r="R10" s="1">
+        <v>1.14217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/f9ac88850adc-reference-gpu-pytorch_v2.4.1-scc24-base","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
         <v>0.376944</v>
       </c>
     </row>
@@ -972,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>4</v>
@@ -994,7 +1064,7 @@
         <v>2</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>6</v>
@@ -1055,46 +1125,46 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2">
@@ -1111,49 +1181,49 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P7" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/gh_action-reference-gpu-pytorch_v2.4.1-default_config","details")</f>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -173,7 +173,7 @@
     <t>CLIP_SCORE: 15.236237794160843  FID_SCORE: 238.78369342212613</t>
   </si>
   <si>
-    <t>CLIP_SCORE: 15.617164582014084  FID_SCORE: 233.2857378703032</t>
+    <t>CLIP_SCORE: 15.617164582014084  FID_SCORE: 233.28573767510915</t>
   </si>
   <si>
     <t>gptj-99</t>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="1">
-        <v>1.14217</v>
+        <v>1.14058</v>
       </c>
     </row>
     <row r="11" spans="1:18">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>0.375638</v>
+        <v>0.374837</v>
       </c>
     </row>
     <row r="7" spans="1:18">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>0.374837</v>
+        <v>0.375843</v>
       </c>
     </row>
     <row r="7" spans="1:18">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -173,7 +173,7 @@
     <t>CLIP_SCORE: 15.236237794160843  FID_SCORE: 238.78369342212613</t>
   </si>
   <si>
-    <t>CLIP_SCORE: 15.617164582014084  FID_SCORE: 233.28573767510915</t>
+    <t>CLIP_SCORE: 15.617164582014084  FID_SCORE: 233.28573789198563</t>
   </si>
   <si>
     <t>gptj-99</t>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="1">
-        <v>1.14058</v>
+        <v>1.13989</v>
       </c>
     </row>
     <row r="11" spans="1:18">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>0.375843</v>
+        <v>0.374495</v>
       </c>
     </row>
     <row r="7" spans="1:18">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="1">
-        <v>1.13989</v>
+        <v>1.13521</v>
       </c>
     </row>
     <row r="11" spans="1:18">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="67">
   <si>
     <t>Model</t>
   </si>
@@ -110,6 +110,9 @@
     <t>4.1-0007</t>
   </si>
   <si>
+    <t>4.1-0008</t>
+  </si>
+  <si>
     <t>datacenter/open/MLCommons/13fce262fb79-reference-gpu-pytorch_v2.4.1-scc24-base/stable-diffusion-xl</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
     <t>datacenter/open/MLCommons/48ed6105bd85-reference-gpu-pytorch_v2.1.0a0-scc24-base/stable-diffusion-xl</t>
   </si>
   <si>
+    <t>datacenter/open/MLCommons/a51568200dc1-reference-gpu-pytorch_v2.4.1-scc24-base_cu124/stable-diffusion-xl</t>
+  </si>
+  <si>
     <t>datacenter/open/MLCommons/e8dbfdd7ca14-nvidia-gpu-TensorRT-scc24-base/stable-diffusion-xl</t>
   </si>
   <si>
@@ -149,6 +155,9 @@
     <t>48ed6105bd85</t>
   </si>
   <si>
+    <t>a51568200dc1</t>
+  </si>
+  <si>
     <t>e8dbfdd7ca14</t>
   </si>
   <si>
@@ -191,10 +200,10 @@
     <t>Tokens/s</t>
   </si>
   <si>
-    <t>4.1-0008</t>
-  </si>
-  <si>
     <t>4.1-0009</t>
+  </si>
+  <si>
+    <t>4.1-0010</t>
   </si>
   <si>
     <t>edge/open/MLCommons/gh_action-reference-gpu-pytorch_v2.4.1-default_config/gptj-99</t>
@@ -576,7 +585,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CW12"/>
+  <dimension ref="A1:CW13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -674,46 +683,46 @@
         <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P6" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/13fce262fb79-reference-gpu-pytorch_v2.4.1-scc24-base","details")</f>
@@ -732,46 +741,46 @@
         <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P7" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/3b07702db56d-reference-gpu-pytorch_v2.4.1-scc24-base","details")</f>
@@ -790,46 +799,46 @@
         <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P8" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/48ed6105bd85-nvidia-gpu-TensorRT-scc24-base","details")</f>
@@ -848,46 +857,46 @@
         <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P9" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/48ed6105bd85-nvidia-gpu-TensorRT-scc24-main","details")</f>
@@ -906,46 +915,46 @@
         <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P10" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/48ed6105bd85-reference-gpu-pytorch_v2.1.0a0-scc24-base","details")</f>
@@ -964,40 +973,40 @@
         <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>4</v>
@@ -1006,7 +1015,7 @@
         <v>55</v>
       </c>
       <c r="P11" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/e8dbfdd7ca14-nvidia-gpu-TensorRT-scc24-base","details")</f>
+        <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/a51568200dc1-reference-gpu-pytorch_v2.4.1-scc24-base_cu124","details")</f>
         <v>0</v>
       </c>
       <c r="Q11" s="2">
@@ -1014,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="1">
-        <v>1.13976</v>
+        <v>0.375287</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1022,49 +1031,49 @@
         <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="P12" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/f9ac88850adc-reference-gpu-pytorch_v2.4.1-scc24-base","details")</f>
+        <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/e8dbfdd7ca14-nvidia-gpu-TensorRT-scc24-base","details")</f>
         <v>0</v>
       </c>
       <c r="Q12" s="2">
@@ -1072,6 +1081,64 @@
         <v>0</v>
       </c>
       <c r="R12" s="1">
+        <v>1.13976</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P13" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/f9ac88850adc-reference-gpu-pytorch_v2.4.1-scc24-base","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
         <v>0.376944</v>
       </c>
     </row>
@@ -1109,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>4</v>
@@ -1131,7 +1198,7 @@
         <v>2</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>6</v>
@@ -1192,46 +1259,46 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2">
@@ -1248,49 +1315,49 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P7" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/gh_action-reference-gpu-pytorch_v2.4.1-default_config","details")</f>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="79">
   <si>
     <t>Model</t>
   </si>
@@ -113,6 +113,12 @@
     <t>4.1-0008</t>
   </si>
   <si>
+    <t>4.1-0011</t>
+  </si>
+  <si>
+    <t>4.1-0012</t>
+  </si>
+  <si>
     <t>datacenter/open/MLCommons/13fce262fb79-reference-gpu-pytorch_v2.4.1-scc24-base/stable-diffusion-xl</t>
   </si>
   <si>
@@ -137,12 +143,24 @@
     <t>datacenter/open/MLCommons/f9ac88850adc-reference-gpu-pytorch_v2.4.1-scc24-base/stable-diffusion-xl</t>
   </si>
   <si>
+    <t>datacenter/open/UNM-Roadrunners/4751fbf98487-reference-gpu-pytorch_v2.4.1-scc24-base/stable-diffusion-xl</t>
+  </si>
+  <si>
+    <t>datacenter/open/UNM-Roadrunners/4751fbf98487-reference-gpu-pytorch_v2.4.1-scc24-main/stable-diffusion-xl</t>
+  </si>
+  <si>
     <t>availableMLCommons</t>
   </si>
   <si>
+    <t>availableUNM-Roadrunners</t>
+  </si>
+  <si>
     <t>MLCommons</t>
   </si>
   <si>
+    <t>UNM-Roadrunners</t>
+  </si>
+  <si>
     <t>available</t>
   </si>
   <si>
@@ -164,12 +182,21 @@
     <t>f9ac88850adc</t>
   </si>
   <si>
+    <t>4751fbf98487</t>
+  </si>
+  <si>
     <t>Intel(R) Xeon(R) w7-2495X</t>
   </si>
   <si>
+    <t>INTEL(R) XEON(R) PLATINUM 8580</t>
+  </si>
+  <si>
     <t>NVIDIA GeForce RTX 4090</t>
   </si>
   <si>
+    <t>NVIDIA H100 NVL</t>
+  </si>
+  <si>
     <t>pytorch v2.4.1</t>
   </si>
   <si>
@@ -182,6 +209,9 @@
     <t xml:space="preserve">Automated by MLCommons CM v2.3.6. </t>
   </si>
   <si>
+    <t xml:space="preserve">Automated by MLCommons CM v3.0.1. </t>
+  </si>
+  <si>
     <t>CLIP_SCORE: 15.18544016778469  FID_SCORE: 235.69504308101006</t>
   </si>
   <si>
@@ -192,6 +222,12 @@
   </si>
   <si>
     <t>CLIP_SCORE: 15.617164582014084  FID_SCORE: 233.28573786792805</t>
+  </si>
+  <si>
+    <t>CLIP_SCORE: 15.170220836997032  FID_SCORE: 235.68987775810245</t>
+  </si>
+  <si>
+    <t>CLIP_SCORE: 13.906862080842256  FID_SCORE: 84.21082273715388</t>
   </si>
   <si>
     <t>gptj-99</t>
@@ -585,7 +621,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CW13"/>
+  <dimension ref="A1:CW15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -683,46 +719,46 @@
         <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="P6" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/13fce262fb79-reference-gpu-pytorch_v2.4.1-scc24-base","details")</f>
@@ -741,46 +777,46 @@
         <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="P7" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/3b07702db56d-reference-gpu-pytorch_v2.4.1-scc24-base","details")</f>
@@ -799,46 +835,46 @@
         <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="P8" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/48ed6105bd85-nvidia-gpu-TensorRT-scc24-base","details")</f>
@@ -857,46 +893,46 @@
         <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="P9" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/48ed6105bd85-nvidia-gpu-TensorRT-scc24-main","details")</f>
@@ -915,46 +951,46 @@
         <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="P10" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/48ed6105bd85-reference-gpu-pytorch_v2.1.0a0-scc24-base","details")</f>
@@ -973,46 +1009,46 @@
         <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="P11" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/a51568200dc1-reference-gpu-pytorch_v2.4.1-scc24-base_cu124","details")</f>
@@ -1031,46 +1067,46 @@
         <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="P12" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/e8dbfdd7ca14-nvidia-gpu-TensorRT-scc24-base","details")</f>
@@ -1089,46 +1125,46 @@
         <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="P13" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/f9ac88850adc-reference-gpu-pytorch_v2.4.1-scc24-base","details")</f>
@@ -1140,6 +1176,122 @@
       </c>
       <c r="R13" s="1">
         <v>0.376944</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" s="2">
+        <v>3</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P14" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/UNM-Roadrunners/results/4751fbf98487-reference-gpu-pytorch_v2.4.1-scc24-base","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/UNM-Roadrunners/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0.666646</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K15" s="2">
+        <v>3</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P15" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/UNM-Roadrunners/results/4751fbf98487-reference-gpu-pytorch_v2.4.1-scc24-main","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/UNM-Roadrunners/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0.6655450000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1176,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>4</v>
@@ -1198,7 +1350,7 @@
         <v>2</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>6</v>
@@ -1259,46 +1411,46 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2">
@@ -1315,49 +1467,49 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="2" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="P7" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/https://github.com/mlcommons/submissions_inference_results_v4.1/tree/main/open/MLCommons/results/gh_action-reference-gpu-pytorch_v2.4.1-default_config","details")</f>
